--- a/Pasos.xlsx
+++ b/Pasos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="384"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Pasos para la web por parte de un usuario</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>Método (GET)</t>
+  </si>
+  <si>
+    <t>10 - Listar usuarios</t>
+  </si>
+  <si>
+    <t>app.get(urls.users,isUser, listUsers)</t>
+  </si>
+  <si>
+    <t>sólo me sale para un campo</t>
   </si>
 </sst>
 </file>
@@ -707,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:J20"/>
+  <dimension ref="D8:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +938,30 @@
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Pasos.xlsx
+++ b/Pasos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Pasos para la web por parte de un usuario</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>sólo me sale para un campo</t>
+  </si>
+  <si>
+    <t>app.post("/servicios/votar/:id_servicio/:id_solucionador",isUser, voteServicio);</t>
+  </si>
+  <si>
+    <t>Método (POST)</t>
+  </si>
+  <si>
+    <t>11 - Puntuar</t>
   </si>
 </sst>
 </file>
@@ -359,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -414,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:J21"/>
+  <dimension ref="D8:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +740,7 @@
     <col min="4" max="4" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="1"/>
@@ -962,6 +974,23 @@
         <v>38</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Pasos.xlsx
+++ b/Pasos.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="384"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="End-points" sheetId="1" r:id="rId1"/>
+    <sheet name="Relacion página Figma" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Pasos para la web por parte de un usuario</t>
   </si>
@@ -28,30 +28,6 @@
   </si>
   <si>
     <t>Logearse (POST)</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Primeros pasos:</t>
-    </r>
   </si>
   <si>
     <r>
@@ -159,18 +135,12 @@
     <t>app.post(urlsusers.insertcomentarios,isUser,servicioExist, newComentar)</t>
   </si>
   <si>
-    <t>9 - Listar comentarios</t>
-  </si>
-  <si>
     <t>app.get(urlsusers.listarcomentarios,isUser, listComentar)</t>
   </si>
   <si>
     <t>Método (GET)</t>
   </si>
   <si>
-    <t>10 - Listar usuarios</t>
-  </si>
-  <si>
     <t>app.get(urls.users,isUser, listUsers)</t>
   </si>
   <si>
@@ -183,7 +153,112 @@
     <t>Método (POST)</t>
   </si>
   <si>
-    <t>11 - Puntuar</t>
+    <t>Página asociada</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t>Paginas en figma</t>
+  </si>
+  <si>
+    <t>Portada</t>
+  </si>
+  <si>
+    <t>Listado peticiones User</t>
+  </si>
+  <si>
+    <t>Detalle Peticion user</t>
+  </si>
+  <si>
+    <t>Formulario de Añadir Petición</t>
+  </si>
+  <si>
+    <t>Mis Datos</t>
+  </si>
+  <si>
+    <t>9 - Listar comentarios / Buscar</t>
+  </si>
+  <si>
+    <t>10 - Listar usuarios / Buscar</t>
+  </si>
+  <si>
+    <t>Formulario de añadir peticion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalle de peticion </t>
+  </si>
+  <si>
+    <t>11 - Puntuar/ Solucionado</t>
+  </si>
+  <si>
+    <t>Serán pestañas de búsqueda.Tal vez se tengan que modificar</t>
+  </si>
+  <si>
+    <t>End -point</t>
+  </si>
+  <si>
+    <t>12 - Listar servicios</t>
+  </si>
+  <si>
+    <t>Peticiones usuarios</t>
+  </si>
+  <si>
+    <t>Método GET</t>
+  </si>
+  <si>
+    <t>app.get(urls.servicios,isUser, listServicios);</t>
+  </si>
+  <si>
+    <t>Listar servicios</t>
+  </si>
+  <si>
+    <t>Listar usuarios</t>
+  </si>
+  <si>
+    <t>Listar Comentarios</t>
+  </si>
+  <si>
+    <t>Editar Usuario</t>
+  </si>
+  <si>
+    <t>Nuevo comentario</t>
+  </si>
+  <si>
+    <t>InsertSolution</t>
+  </si>
+  <si>
+    <t>newServicio</t>
+  </si>
+  <si>
+    <t>adminUSer</t>
+  </si>
+  <si>
+    <t>Peticiones postman</t>
+  </si>
+  <si>
+    <t>newUser</t>
+  </si>
+  <si>
+    <t>Login de usuario</t>
+  </si>
+  <si>
+    <t>validateUser</t>
+  </si>
+  <si>
+    <t>realiza el envío al mail</t>
+  </si>
+  <si>
+    <t>Primeros pasos</t>
+  </si>
+  <si>
+    <t>Puntuar servicio</t>
   </si>
 </sst>
 </file>
@@ -233,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +321,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -260,172 +341,525 @@
       <right style="thin">
         <color theme="0"/>
       </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,276 +1162,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:J22"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="21" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="9" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="41">
+        <v>1</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="42">
+        <v>2</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="42">
+        <v>3</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="E13" s="26"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="4:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="18" t="s">
+      <c r="I16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="1" t="s">
+      <c r="H17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+      <c r="J17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
+      <c r="I20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
+      <c r="K21" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="I22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="F10:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1006,12 +1679,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Pasos.xlsx
+++ b/Pasos.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="End-points" sheetId="1" r:id="rId1"/>
     <sheet name="Relacion página Figma" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dúbidas" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
   <si>
     <t>Pasos para la web por parte de un usuario</t>
   </si>
@@ -28,6 +29,252 @@
   </si>
   <si>
     <t>Logearse (POST)</t>
+  </si>
+  <si>
+    <t>End-point</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Middlewares</t>
+  </si>
+  <si>
+    <t>app.post(urls.insertUser,newUser)</t>
+  </si>
+  <si>
+    <t>app.get(urls.validaregistrationCode,validateUser)</t>
+  </si>
+  <si>
+    <t>app.post(urlsusers.userslogin, loginUser);</t>
+  </si>
+  <si>
+    <t>Rutas usuarios</t>
+  </si>
+  <si>
+    <t>Enviar datos (POST)</t>
+  </si>
+  <si>
+    <t>isUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> app.post(urls.userlogeado,isUser,adminUser)</t>
+  </si>
+  <si>
+    <t>4 - La primera página que verá el usuario será adminUser</t>
+  </si>
+  <si>
+    <t>Se comprueba si tiene el token correcto para poder ir a su página, eso lo realizará isUser</t>
+  </si>
+  <si>
+    <t>Testeado</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>app.post(urls.servicios, isUser,newServicio)</t>
+  </si>
+  <si>
+    <t>Enviar datos(POST)</t>
+  </si>
+  <si>
+    <t>5 - Insertar un servicio</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>isUser,servicioExist</t>
+  </si>
+  <si>
+    <t>app.post(urls.usersolution,isUser,servicioExist,insertSolutions)</t>
+  </si>
+  <si>
+    <t>pero falta poner el idUser por el token</t>
+  </si>
+  <si>
+    <t>6 - Solucionar un servicio</t>
+  </si>
+  <si>
+    <t>7 - Insertar comentario</t>
+  </si>
+  <si>
+    <t>8 - Modificar datos</t>
+  </si>
+  <si>
+    <t>Método (PUT)</t>
+  </si>
+  <si>
+    <t>app.post(urlsusers.insertcomentarios,isUser,servicioExist, newComentar)</t>
+  </si>
+  <si>
+    <t>app.get(urlsusers.listarcomentarios,isUser, listComentar)</t>
+  </si>
+  <si>
+    <t>Método (GET)</t>
+  </si>
+  <si>
+    <t>app.get(urls.users,isUser, listUsers)</t>
+  </si>
+  <si>
+    <t>sólo me sale para un campo</t>
+  </si>
+  <si>
+    <t>Método (POST)</t>
+  </si>
+  <si>
+    <t>Página asociada</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t>Paginas en figma</t>
+  </si>
+  <si>
+    <t>Portada</t>
+  </si>
+  <si>
+    <t>Listado peticiones User</t>
+  </si>
+  <si>
+    <t>Detalle Peticion user</t>
+  </si>
+  <si>
+    <t>Formulario de Añadir Petición</t>
+  </si>
+  <si>
+    <t>Mis Datos</t>
+  </si>
+  <si>
+    <t>9 - Listar comentarios / Buscar</t>
+  </si>
+  <si>
+    <t>10 - Listar usuarios / Buscar</t>
+  </si>
+  <si>
+    <t>Formulario de añadir peticion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalle de peticion </t>
+  </si>
+  <si>
+    <t>11 - Puntuar/ Solucionado</t>
+  </si>
+  <si>
+    <t>Serán pestañas de búsqueda.Tal vez se tengan que modificar</t>
+  </si>
+  <si>
+    <t>End -point</t>
+  </si>
+  <si>
+    <t>12 - Listar servicios</t>
+  </si>
+  <si>
+    <t>Peticiones usuarios</t>
+  </si>
+  <si>
+    <t>Método GET</t>
+  </si>
+  <si>
+    <t>app.get(urls.servicios,isUser, listServicios);</t>
+  </si>
+  <si>
+    <t>Listar servicios</t>
+  </si>
+  <si>
+    <t>Listar usuarios</t>
+  </si>
+  <si>
+    <t>Listar Comentarios</t>
+  </si>
+  <si>
+    <t>Editar Usuario</t>
+  </si>
+  <si>
+    <t>Nuevo comentario</t>
+  </si>
+  <si>
+    <t>InsertSolution</t>
+  </si>
+  <si>
+    <t>newServicio</t>
+  </si>
+  <si>
+    <t>adminUSer</t>
+  </si>
+  <si>
+    <t>Peticiones postman</t>
+  </si>
+  <si>
+    <t>newUser</t>
+  </si>
+  <si>
+    <t>Login de usuario</t>
+  </si>
+  <si>
+    <t>validateUser</t>
+  </si>
+  <si>
+    <t>realiza el envío al mail</t>
+  </si>
+  <si>
+    <t>Primeros pasos</t>
+  </si>
+  <si>
+    <t>Puntuar servicio</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/users/8</t>
+  </si>
+  <si>
+    <t>En URL</t>
+  </si>
+  <si>
+    <t>AÑADIDA AL host</t>
+  </si>
+  <si>
+    <t>é necesario isUser?</t>
+  </si>
+  <si>
+    <t>entendo que haberá un redirección a adminUSer</t>
+  </si>
+  <si>
+    <t>que executará o seu endpoint</t>
+  </si>
+  <si>
+    <t>app.post(urlsusers.userslogin, loginUser) ==&gt;</t>
+  </si>
+  <si>
+    <t>logueado</t>
+  </si>
+  <si>
+    <t>Páxina 1</t>
+  </si>
+  <si>
+    <t>Páxina 2</t>
+  </si>
+  <si>
+    <t>adminUser</t>
+  </si>
+  <si>
+    <t>app.put(urlsusers.updateuser, isUser,userExists,editUser)</t>
+  </si>
+  <si>
+    <t>/users/:id_usu</t>
+  </si>
+  <si>
+    <t>app.post(urlsusers.votar,isUser, voteServicio);</t>
+  </si>
+  <si>
+    <t>/servicios/votar/:id_servicio/:id_solucionador</t>
   </si>
   <si>
     <r>
@@ -36,7 +283,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color theme="0"/>
+        <color theme="4"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -45,7 +292,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="4"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -54,218 +301,20 @@
     </r>
   </si>
   <si>
-    <t>End-point</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Middlewares</t>
-  </si>
-  <si>
-    <t>app.post(urls.insertUser,newUser)</t>
-  </si>
-  <si>
-    <t>app.get(urls.validaregistrationCode,validateUser)</t>
-  </si>
-  <si>
-    <t>app.post(urlsusers.userslogin, loginUser);</t>
-  </si>
-  <si>
-    <t>Rutas usuarios</t>
-  </si>
-  <si>
-    <t>Enviar datos (POST)</t>
-  </si>
-  <si>
-    <t>isUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> app.post(urls.userlogeado,isUser,adminUser)</t>
-  </si>
-  <si>
-    <t>4 - La primera página que verá el usuario será adminUser</t>
-  </si>
-  <si>
-    <t>Se comprueba si tiene el token correcto para poder ir a su página, eso lo realizará isUser</t>
-  </si>
-  <si>
-    <t>Testeado</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>app.post(urls.servicios, isUser,newServicio)</t>
-  </si>
-  <si>
-    <t>Enviar datos(POST)</t>
-  </si>
-  <si>
-    <t>5 - Insertar un servicio</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>isUser,servicioExist</t>
-  </si>
-  <si>
-    <t>app.post(urls.usersolution,isUser,servicioExist,insertSolutions)</t>
-  </si>
-  <si>
-    <t>pero falta poner el idUser por el token</t>
-  </si>
-  <si>
-    <t>6 - Solucionar un servicio</t>
-  </si>
-  <si>
-    <t>7 - Insertar comentario</t>
-  </si>
-  <si>
-    <t>8 - Modificar datos</t>
-  </si>
-  <si>
-    <t>Método (PUT)</t>
-  </si>
-  <si>
-    <t>app.put(urlsusers.updateuser, isUser,editUser)</t>
-  </si>
-  <si>
-    <t>app.post(urlsusers.insertcomentarios,isUser,servicioExist, newComentar)</t>
-  </si>
-  <si>
-    <t>app.get(urlsusers.listarcomentarios,isUser, listComentar)</t>
-  </si>
-  <si>
-    <t>Método (GET)</t>
-  </si>
-  <si>
-    <t>app.get(urls.users,isUser, listUsers)</t>
-  </si>
-  <si>
-    <t>sólo me sale para un campo</t>
-  </si>
-  <si>
-    <t>app.post("/servicios/votar/:id_servicio/:id_solucionador",isUser, voteServicio);</t>
-  </si>
-  <si>
-    <t>Método (POST)</t>
-  </si>
-  <si>
-    <t>Página asociada</t>
-  </si>
-  <si>
-    <t>Registro</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Admin User</t>
-  </si>
-  <si>
-    <t>Paginas en figma</t>
-  </si>
-  <si>
-    <t>Portada</t>
-  </si>
-  <si>
-    <t>Listado peticiones User</t>
-  </si>
-  <si>
-    <t>Detalle Peticion user</t>
-  </si>
-  <si>
-    <t>Formulario de Añadir Petición</t>
-  </si>
-  <si>
-    <t>Mis Datos</t>
-  </si>
-  <si>
-    <t>9 - Listar comentarios / Buscar</t>
-  </si>
-  <si>
-    <t>10 - Listar usuarios / Buscar</t>
-  </si>
-  <si>
-    <t>Formulario de añadir peticion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detalle de peticion </t>
-  </si>
-  <si>
-    <t>11 - Puntuar/ Solucionado</t>
-  </si>
-  <si>
-    <t>Serán pestañas de búsqueda.Tal vez se tengan que modificar</t>
-  </si>
-  <si>
-    <t>End -point</t>
-  </si>
-  <si>
-    <t>12 - Listar servicios</t>
-  </si>
-  <si>
-    <t>Peticiones usuarios</t>
-  </si>
-  <si>
-    <t>Método GET</t>
-  </si>
-  <si>
-    <t>app.get(urls.servicios,isUser, listServicios);</t>
-  </si>
-  <si>
-    <t>Listar servicios</t>
-  </si>
-  <si>
-    <t>Listar usuarios</t>
-  </si>
-  <si>
-    <t>Listar Comentarios</t>
-  </si>
-  <si>
-    <t>Editar Usuario</t>
-  </si>
-  <si>
-    <t>Nuevo comentario</t>
-  </si>
-  <si>
-    <t>InsertSolution</t>
-  </si>
-  <si>
-    <t>newServicio</t>
-  </si>
-  <si>
-    <t>adminUSer</t>
-  </si>
-  <si>
-    <t>Peticiones postman</t>
-  </si>
-  <si>
-    <t>newUser</t>
-  </si>
-  <si>
-    <t>Login de usuario</t>
-  </si>
-  <si>
-    <t>validateUser</t>
-  </si>
-  <si>
-    <t>realiza el envío al mail</t>
-  </si>
-  <si>
-    <t>Primeros pasos</t>
-  </si>
-  <si>
-    <t>Puntuar servicio</t>
+    <t>Carpeta</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>A funcion validate Squema ???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,30 +331,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Symbol"/>
-      <family val="1"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Wingdings"/>
       <charset val="2"/>
     </font>
     <font>
       <sz val="7"/>
-      <color theme="0"/>
+      <color theme="4"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -323,12 +378,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -681,21 +736,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -730,6 +770,64 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -737,130 +835,149 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,515 +1279,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:K20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="19" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.7109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8" t="s">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="52" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="H11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D12" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="28">
+        <v>2</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="28">
+        <v>3</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="56" t="s">
+      <c r="E16" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="41">
-        <v>1</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="15" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="1" t="s">
+      <c r="J17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="57"/>
+      <c r="L17" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="42">
-        <v>2</v>
-      </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="42">
-        <v>3</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="5" t="s">
+      <c r="D23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="K23" s="18"/>
+      <c r="L23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="32" t="s">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="E24" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
+      <c r="J24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1692,72 +1856,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>54</v>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>43</v>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>39</v>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>40</v>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>41</v>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>44</v>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>45</v>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>6.7</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>46</v>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>47</v>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -1770,12 +1934,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D2:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pasos.xlsx
+++ b/Pasos.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="384"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="End-points" sheetId="1" r:id="rId1"/>
     <sheet name="Relacion página Figma" sheetId="2" r:id="rId2"/>
     <sheet name="Dúbidas" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="Middlewares" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>Pasos para la web por parte de un usuario</t>
   </si>
@@ -301,20 +302,129 @@
     </r>
   </si>
   <si>
-    <t>Carpeta</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>A funcion validate Squema ???</t>
+  </si>
+  <si>
+    <t>13 - Borrar servicio</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Poder Editar</t>
+  </si>
+  <si>
+    <t>Poder Borrar</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Tiene que Existir</t>
+  </si>
+  <si>
+    <t>Hace la acción</t>
+  </si>
+  <si>
+    <t>Observación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanzo el mismo end-point para el usuario </t>
+  </si>
+  <si>
+    <t>app.delete(urls.deleteservicio, isUser, servicioExist, canDeleteService,deleteServicio)</t>
+  </si>
+  <si>
+    <t>URL sin localhost:3000</t>
+  </si>
+  <si>
+    <t>Poder insertar</t>
+  </si>
+  <si>
+    <t>Necesita token</t>
+  </si>
+  <si>
+    <t>Si , generar token</t>
+  </si>
+  <si>
+    <t>Si, generar token</t>
+  </si>
+  <si>
+    <t>app.post(urls.servicios, isUser,canInsertService,newServicio)</t>
+  </si>
+  <si>
+    <t>/servicios</t>
+  </si>
+  <si>
+    <t>/users/delete/:id</t>
+  </si>
+  <si>
+    <t>/servicios/borrar/:id_ser</t>
+  </si>
+  <si>
+    <t>app.delete(urlsusers.deleteuser,isUser,userExists,canDeleteUser, deleteUser)</t>
+  </si>
+  <si>
+    <r>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.delete(urlsusers.userborracomentario, isUser,canDeleteComentar,deleteComentar);</t>
+    </r>
+  </si>
+  <si>
+    <t>/users/delete/comentario/:id</t>
+  </si>
+  <si>
+    <t>Poder puntuar</t>
+  </si>
+  <si>
+    <t>Usuario que solicita el servicio</t>
+  </si>
+  <si>
+    <t>app.put(urlsusers.updateuser,isUser,userExists, canEdit ,editUser)</t>
+  </si>
+  <si>
+    <t>canEdit</t>
+  </si>
+  <si>
+    <t>editUser</t>
+  </si>
+  <si>
+    <t>/users/edit/:id</t>
+  </si>
+  <si>
+    <t>app.post(urlsusers.votar,isUser,cannotAdmin, voteServicio)</t>
+  </si>
+  <si>
+    <t>app.post(urls.admin,isUser,canEditAmin,updateAmin)</t>
+  </si>
+  <si>
+    <t>/admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,8 +472,48 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,12 +528,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -831,153 +1005,244 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,555 +1546,557 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="E8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.7109375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="19" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.7109375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="22"/>
+      <c r="I10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="28">
         <v>1</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="H11" s="24" t="s">
+      <c r="F11" s="29"/>
+      <c r="H11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="20" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="34">
         <v>2</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="20" t="s">
+      <c r="J12" s="24"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="34">
         <v>3</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="33" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="20" t="s">
+      <c r="J13" s="24"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="20"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="20"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="47" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="49" t="s">
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="53" t="s">
+      <c r="J16" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="K16" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="54" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="60"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="18" t="s">
+      <c r="K17" s="63"/>
+      <c r="L17" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="10"/>
+      <c r="C18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="5" t="s">
+      <c r="F18" s="60"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="10"/>
+      <c r="C19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="58" t="s">
+      <c r="F19" s="60"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18" t="s">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18" t="s">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="49" t="s">
+      <c r="F21" s="56"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="63" t="s">
+      <c r="I21" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="64" t="s">
+      <c r="K21" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="64" t="s">
+      <c r="L21" s="70" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="9" t="s">
+      <c r="F23" s="60"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="66" t="s">
+      <c r="I23" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18" t="s">
+      <c r="K23" s="24"/>
+      <c r="L23" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="5" t="s">
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18" t="s">
+      <c r="K24" s="24"/>
+      <c r="L24" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1846,7 +2113,7 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,7 +2218,7 @@
   <sheetData>
     <row r="2" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="4:12" x14ac:dyDescent="0.25">
@@ -1998,27 +2265,396 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:D7"/>
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" customWidth="1"/>
+    <col min="10" max="10" width="1" customWidth="1"/>
+    <col min="11" max="11" width="98" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D3" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="77"/>
+      <c r="G3" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="77"/>
+      <c r="I3" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="77"/>
+      <c r="K3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="77"/>
+      <c r="G4" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="I4" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="83"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="77"/>
+      <c r="G5" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="77"/>
+      <c r="I5" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="K5" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="77"/>
+      <c r="I6" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="77"/>
+      <c r="L7" s="92"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="77"/>
+      <c r="K8" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="77"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="77"/>
+      <c r="G10" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="77"/>
+      <c r="I10" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="77"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="91"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="77"/>
+      <c r="G11" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="I11" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="77"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="91"/>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="L12" s="92"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="91"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="77"/>
+      <c r="G14" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="77"/>
+      <c r="I14" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="77"/>
+      <c r="K14" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="91"/>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="89"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="91" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="89"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="K19" s="84"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G20" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D17:D19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>81</v>
+    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Pasos.xlsx
+++ b/Pasos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480"/>
   </bookViews>
   <sheets>
     <sheet name="End-points" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
   <si>
     <t>Pasos para la web por parte de un usuario</t>
   </si>
@@ -276,30 +276,6 @@
   </si>
   <si>
     <t>/servicios/votar/:id_servicio/:id_solucionador</t>
-  </si>
-  <si>
-    <r>
-      <t>§</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="4"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Una vez dentro….</t>
-    </r>
   </si>
   <si>
     <t>A funcion validate Squema ???</t>
@@ -414,17 +390,41 @@
     <t>app.post(urlsusers.votar,isUser,cannotAdmin, voteServicio)</t>
   </si>
   <si>
-    <t>app.post(urls.admin,isUser,canEditAmin,updateAmin)</t>
-  </si>
-  <si>
-    <t>/admin</t>
+    <t>/admin/modificar/</t>
+  </si>
+  <si>
+    <t>app.post(urls.admin,isUser,userExists,canEditAmin,updateAmin)</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Una vez dentro….</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,39 +438,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="4"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -511,6 +478,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -557,25 +549,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,19 +564,6 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -628,19 +594,6 @@
         <color theme="0"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -679,19 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -709,273 +649,12 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1020,228 +699,126 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1546,557 +1123,560 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.7109375" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="19" style="29" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.140625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.7109375" style="29" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="19"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="40">
         <v>1</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="H11" s="30" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="26" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="40">
         <v>2</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="26" t="s">
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="40">
         <v>3</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="39" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="26" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="26"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="26"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="53" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="55" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="60" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="11" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="63"/>
-      <c r="L17" s="24" t="s">
+      <c r="K17" s="43"/>
+      <c r="L17" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="30"/>
+      <c r="C18" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="11" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="30"/>
+      <c r="C19" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="64" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24" t="s">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24" t="s">
+      <c r="K20" s="41"/>
+      <c r="L20" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="55" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="69" t="s">
+      <c r="I21" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="70" t="s">
+      <c r="K21" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="70" t="s">
+      <c r="L21" s="44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="15" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="I23" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24" t="s">
+      <c r="K23" s="41"/>
+      <c r="L23" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="11" t="s">
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24" t="s">
+      <c r="K24" s="41"/>
+      <c r="L24" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="24"/>
-      <c r="E25" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2218,7 +1798,7 @@
   <sheetData>
     <row r="2" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="4:12" x14ac:dyDescent="0.25">
@@ -2265,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,360 +1859,314 @@
     <col min="6" max="6" width="1" customWidth="1"/>
     <col min="8" max="8" width="0.85546875" customWidth="1"/>
     <col min="10" max="10" width="1" customWidth="1"/>
-    <col min="11" max="11" width="98" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="79.28515625" customWidth="1"/>
     <col min="12" max="12" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D3" s="76" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="76" t="s">
+      <c r="E4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="76" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="78" t="s">
+      <c r="D11" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E11" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="80" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" s="91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="83"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="91" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="77"/>
-      <c r="L7" s="92"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="91" t="s">
+      <c r="D14" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="91"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="91"/>
-    </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="L12" s="92"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="91"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="91" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="91"/>
-    </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="89"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="91" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="89"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="K19" s="84"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="90"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="23"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="K17:K19"/>
+  <mergeCells count="18">
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="K11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2651,10 +2185,10 @@
   <sheetData>
     <row r="3" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
         <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Pasos.xlsx
+++ b/Pasos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="End-points" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
   <si>
     <t>Pasos para la web por parte de un usuario</t>
   </si>
   <si>
-    <t>Registrarse (POST)</t>
-  </si>
-  <si>
-    <t>Validarse (GET)</t>
-  </si>
-  <si>
-    <t>Logearse (POST)</t>
-  </si>
-  <si>
     <t>End-point</t>
   </si>
   <si>
@@ -47,9 +38,6 @@
     <t>app.get(urls.validaregistrationCode,validateUser)</t>
   </si>
   <si>
-    <t>app.post(urlsusers.userslogin, loginUser);</t>
-  </si>
-  <si>
     <t>Rutas usuarios</t>
   </si>
   <si>
@@ -74,15 +62,9 @@
     <t>Ok</t>
   </si>
   <si>
-    <t>app.post(urls.servicios, isUser,newServicio)</t>
-  </si>
-  <si>
     <t>Enviar datos(POST)</t>
   </si>
   <si>
-    <t>5 - Insertar un servicio</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -101,30 +83,15 @@
     <t>7 - Insertar comentario</t>
   </si>
   <si>
-    <t>8 - Modificar datos</t>
-  </si>
-  <si>
-    <t>Método (PUT)</t>
-  </si>
-  <si>
     <t>app.post(urlsusers.insertcomentarios,isUser,servicioExist, newComentar)</t>
   </si>
   <si>
     <t>app.get(urlsusers.listarcomentarios,isUser, listComentar)</t>
   </si>
   <si>
-    <t>Método (GET)</t>
-  </si>
-  <si>
     <t>app.get(urls.users,isUser, listUsers)</t>
   </si>
   <si>
-    <t>sólo me sale para un campo</t>
-  </si>
-  <si>
-    <t>Método (POST)</t>
-  </si>
-  <si>
     <t>Página asociada</t>
   </si>
   <si>
@@ -155,48 +122,18 @@
     <t>Mis Datos</t>
   </si>
   <si>
-    <t>9 - Listar comentarios / Buscar</t>
-  </si>
-  <si>
-    <t>10 - Listar usuarios / Buscar</t>
-  </si>
-  <si>
     <t>Formulario de añadir peticion</t>
   </si>
   <si>
     <t xml:space="preserve">Detalle de peticion </t>
   </si>
   <si>
-    <t>11 - Puntuar/ Solucionado</t>
-  </si>
-  <si>
-    <t>Serán pestañas de búsqueda.Tal vez se tengan que modificar</t>
-  </si>
-  <si>
     <t>End -point</t>
   </si>
   <si>
-    <t>12 - Listar servicios</t>
-  </si>
-  <si>
-    <t>Peticiones usuarios</t>
-  </si>
-  <si>
-    <t>Método GET</t>
-  </si>
-  <si>
     <t>app.get(urls.servicios,isUser, listServicios);</t>
   </si>
   <si>
-    <t>Listar servicios</t>
-  </si>
-  <si>
-    <t>Listar usuarios</t>
-  </si>
-  <si>
-    <t>Listar Comentarios</t>
-  </si>
-  <si>
     <t>Editar Usuario</t>
   </si>
   <si>
@@ -215,27 +152,9 @@
     <t>Peticiones postman</t>
   </si>
   <si>
-    <t>newUser</t>
-  </si>
-  <si>
-    <t>Login de usuario</t>
-  </si>
-  <si>
-    <t>validateUser</t>
-  </si>
-  <si>
-    <t>realiza el envío al mail</t>
-  </si>
-  <si>
     <t>Primeros pasos</t>
   </si>
   <si>
-    <t>Puntuar servicio</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/users/8</t>
-  </si>
-  <si>
     <t>En URL</t>
   </si>
   <si>
@@ -266,24 +185,12 @@
     <t>adminUser</t>
   </si>
   <si>
-    <t>app.put(urlsusers.updateuser, isUser,userExists,editUser)</t>
-  </si>
-  <si>
-    <t>/users/:id_usu</t>
-  </si>
-  <si>
-    <t>app.post(urlsusers.votar,isUser, voteServicio);</t>
-  </si>
-  <si>
     <t>/servicios/votar/:id_servicio/:id_solucionador</t>
   </si>
   <si>
     <t>A funcion validate Squema ???</t>
   </si>
   <si>
-    <t>13 - Borrar servicio</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -308,9 +215,6 @@
     <t>Si</t>
   </si>
   <si>
-    <t>Tiene que Existir</t>
-  </si>
-  <si>
     <t>Hace la acción</t>
   </si>
   <si>
@@ -351,19 +255,6 @@
   </si>
   <si>
     <t>app.delete(urlsusers.deleteuser,isUser,userExists,canDeleteUser, deleteUser)</t>
-  </si>
-  <si>
-    <r>
-      <t>app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.delete(urlsusers.userborracomentario, isUser,canDeleteComentar,deleteComentar);</t>
-    </r>
   </si>
   <si>
     <t>/users/delete/comentario/:id</t>
@@ -419,12 +310,311 @@
       <t>Una vez dentro….</t>
     </r>
   </si>
+  <si>
+    <t>Listar datos</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Acción sobre el</t>
+  </si>
+  <si>
+    <t>Visualización de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrarse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validarse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logearse </t>
+  </si>
+  <si>
+    <t>Solucionar servicio</t>
+  </si>
+  <si>
+    <t>app.post(urls.usersolution,isUser,servicioExist,cannotAdmin,insertSolutions)</t>
+  </si>
+  <si>
+    <t>LINEA</t>
+  </si>
+  <si>
+    <t>POSICION</t>
+  </si>
+  <si>
+    <r>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.delete(urlsusers.userborracomentario, isUser,comentarioExists,canDeleteComentar,deleteComentar) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">app.post(urlsusers.userslogin, loginUser);   </t>
+  </si>
+  <si>
+    <t>//Get - /servicios/id</t>
+  </si>
+  <si>
+    <t>//Devuelve un único servicio</t>
+  </si>
+  <si>
+    <r>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>serviciosid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isUser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>servicioExist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getServicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>NO TENGO CLARO SI LOS QUIERO</t>
+  </si>
+  <si>
+    <t>//GET - /comentar</t>
+  </si>
+  <si>
+    <t>//Devuelve todos los comentarios de la tabla comentar</t>
+  </si>
+  <si>
+    <r>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>urlsusers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>listarcomentarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isUser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>listComentar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Lo utilizará también el admin (hay uno para el admin sólo línea 150)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,13 +672,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
@@ -504,8 +687,46 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,8 +769,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -695,11 +934,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -723,14 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -738,55 +1038,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,17 +1066,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,562 +1513,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="29" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.140625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.7109375" style="29" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="19" style="17" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.7109375" style="17" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="C18" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="41" t="s">
+      <c r="E18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="40">
-        <v>1</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="40">
-        <v>2</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="40">
-        <v>3</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="44" t="s">
+      <c r="K18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="C19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="C18" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="C19" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="44" t="s">
+      <c r="D20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="41" t="s">
-        <v>21</v>
-      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="27"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="27"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41" t="s">
-        <v>21</v>
-      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41" t="s">
-        <v>21</v>
-      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="45"/>
-      <c r="E25" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1704,21 +1958,21 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1726,7 +1980,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1734,7 +1988,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1742,7 +1996,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1752,7 +2006,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>6.7</v>
@@ -1760,7 +2014,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -1768,7 +2022,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -1798,15 +2052,15 @@
   <sheetData>
     <row r="2" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.25">
@@ -1814,28 +2068,28 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1845,141 +2099,173 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1" customWidth="1"/>
     <col min="8" max="8" width="0.85546875" customWidth="1"/>
-    <col min="10" max="10" width="1" customWidth="1"/>
-    <col min="11" max="11" width="79.28515625" customWidth="1"/>
-    <col min="12" max="12" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.28515625" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="124.42578125" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="F2" s="5"/>
-      <c r="G2" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G2" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D3" s="7" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="7" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="7" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>104</v>
+      <c r="L3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="10" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="10" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="22"/>
-      <c r="D5" s="20"/>
+      <c r="K4" s="10">
+        <v>111</v>
+      </c>
+      <c r="L4" s="10">
+        <v>4</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="64"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="9" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="10" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="10" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="10">
+        <v>115</v>
+      </c>
+      <c r="L5" s="10">
+        <v>5</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="9" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="10" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="10" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="10">
+        <v>107</v>
+      </c>
+      <c r="L6" s="10">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="11"/>
@@ -1990,61 +2276,79 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
       <c r="J7" s="8"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>105</v>
+      <c r="C8" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="10" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="10" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="10">
+        <v>120</v>
+      </c>
+      <c r="L8" s="10">
+        <v>6</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="9" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="10" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="10">
+        <v>163</v>
+      </c>
+      <c r="L9" s="10">
+        <v>15</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="4" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="11"/>
@@ -2055,118 +2359,398 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="35">
+        <v>155</v>
+      </c>
+      <c r="L11" s="35">
+        <v>13</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="45" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="27"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="36">
+        <v>146</v>
+      </c>
+      <c r="L12" s="36">
+        <v>12</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="44"/>
+      <c r="P12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="4" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="8"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="N14" s="63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="66"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="77">
+        <v>173</v>
+      </c>
+      <c r="L15" s="77">
+        <v>16</v>
+      </c>
+      <c r="N15" s="63"/>
+      <c r="O15" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="66"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="N16" s="63"/>
+    </row>
+    <row r="17" spans="3:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="80">
+        <v>130</v>
+      </c>
+      <c r="L18" s="73">
+        <v>8</v>
+      </c>
+      <c r="N18" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="72"/>
+      <c r="D19" s="75"/>
+      <c r="G19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="73"/>
+      <c r="N19" s="76"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="74"/>
+      <c r="J20" s="11"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="35">
+        <v>159</v>
+      </c>
+      <c r="L21" s="35">
+        <v>14</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="54"/>
+      <c r="I22" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="35">
+        <v>167</v>
+      </c>
+      <c r="L22" s="35">
+        <v>17</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="54"/>
+      <c r="I23" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="35">
+        <v>97</v>
+      </c>
+      <c r="L23" s="35">
+        <v>1</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G26" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="60"/>
+    </row>
+    <row r="27" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="35">
+        <v>134</v>
+      </c>
+      <c r="L27" s="35">
+        <v>18</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G28" s="56"/>
+      <c r="I28" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="35">
+        <v>142</v>
+      </c>
+      <c r="L28" s="35">
+        <v>11</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G29" s="57"/>
+      <c r="I29" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="35">
+        <v>138</v>
+      </c>
+      <c r="L29" s="35">
+        <v>10</v>
+      </c>
+      <c r="N29" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="51">
+        <v>103</v>
+      </c>
+      <c r="L30" s="51">
+        <v>2</v>
+      </c>
+      <c r="N30" s="69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G31" s="68"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="N31" s="70"/>
+    </row>
+    <row r="38" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="23"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="23"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="16"/>
+    </row>
+    <row r="40" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>124</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="N41" s="79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>134</v>
+      </c>
+      <c r="L44">
+        <v>9</v>
+      </c>
+      <c r="N44" s="79" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L11:L12"/>
+  <mergeCells count="29">
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G26:N26"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="N14:N16"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="G21:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2185,10 +2769,10 @@
   <sheetData>
     <row r="3" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Pasos.xlsx
+++ b/Pasos.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="4" r:id="rId1"/>
     <sheet name="Relacion página Figma" sheetId="2" r:id="rId2"/>
     <sheet name="Dúbidas" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId4"/>
+    <sheet name="End-points" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'End-points'!$E$5:$L$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resumen!$C$8:$O$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="143">
   <si>
     <t>End-point</t>
   </si>
@@ -548,12 +549,168 @@
   <si>
     <t>/users/userLogin/</t>
   </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>urls</t>
+  </si>
+  <si>
+    <t>urlsusers</t>
+  </si>
+  <si>
+    <t>insertUser</t>
+  </si>
+  <si>
+    <t>validaregistrationCode</t>
+  </si>
+  <si>
+    <t>userslogin</t>
+  </si>
+  <si>
+    <t>deleteuser</t>
+  </si>
+  <si>
+    <t>deleteservicio</t>
+  </si>
+  <si>
+    <t>userborracomentario</t>
+  </si>
+  <si>
+    <t>updateuser</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>servicios</t>
+  </si>
+  <si>
+    <t>insertcomentarios</t>
+  </si>
+  <si>
+    <t>votar</t>
+  </si>
+  <si>
+    <t>usersolution</t>
+  </si>
+  <si>
+    <t>listarcomentarios</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>userlogeado</t>
+  </si>
+  <si>
+    <t>newUser</t>
+  </si>
+  <si>
+    <t>validateUser</t>
+  </si>
+  <si>
+    <t>loginUser</t>
+  </si>
+  <si>
+    <t>isUser</t>
+  </si>
+  <si>
+    <t>userExists</t>
+  </si>
+  <si>
+    <t>servicioExist</t>
+  </si>
+  <si>
+    <t>comentariosExists</t>
+  </si>
+  <si>
+    <t>canInsertService</t>
+  </si>
+  <si>
+    <t>cannotAdmin</t>
+  </si>
+  <si>
+    <t>listComentar</t>
+  </si>
+  <si>
+    <t>listUsers</t>
+  </si>
+  <si>
+    <t>listServicios</t>
+  </si>
+  <si>
+    <t>canDeleteUser</t>
+  </si>
+  <si>
+    <t>canDeleteService</t>
+  </si>
+  <si>
+    <t>canDeleteComentar</t>
+  </si>
+  <si>
+    <t>canEditAdmin</t>
+  </si>
+  <si>
+    <t>deleteUser</t>
+  </si>
+  <si>
+    <t>deleteService</t>
+  </si>
+  <si>
+    <t>deleteComentar</t>
+  </si>
+  <si>
+    <t>updateAdmin</t>
+  </si>
+  <si>
+    <t>newServicio</t>
+  </si>
+  <si>
+    <t>newComentar</t>
+  </si>
+  <si>
+    <t>voteServicio</t>
+  </si>
+  <si>
+    <t>insertSolutions</t>
+  </si>
+  <si>
+    <t>Acción final</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Segundo</t>
+  </si>
+  <si>
+    <t>Método de envío</t>
+  </si>
+  <si>
+    <t>Obxeto</t>
+  </si>
+  <si>
+    <t>Primeiro</t>
+  </si>
+  <si>
+    <t>Terceiro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +823,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -843,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -897,24 +1062,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -925,12 +1072,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -938,23 +1079,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,6 +1112,65 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1292,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,11 +1504,11 @@
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="4"/>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -1336,22 +1524,22 @@
       <c r="E8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="27"/>
+      <c r="M8" s="21"/>
       <c r="O8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1360,30 +1548,30 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="39" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="12">
         <v>159</v>
       </c>
       <c r="L9" s="12">
         <v>14</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="48" t="s">
+      <c r="M9" s="32"/>
+      <c r="N9" s="36" t="s">
         <v>1</v>
       </c>
       <c r="O9" s="8" t="s">
@@ -1392,28 +1580,28 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="26"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="5"/>
       <c r="E10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="39" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39" t="s">
+      <c r="H10" s="28"/>
+      <c r="I10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="12">
         <v>167</v>
       </c>
       <c r="L10" s="12">
         <v>17</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="49" t="s">
+      <c r="M10" s="32"/>
+      <c r="N10" s="37" t="s">
         <v>2</v>
       </c>
       <c r="O10" s="8" t="s">
@@ -1422,30 +1610,30 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="26"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="39" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
+      <c r="H11" s="28"/>
+      <c r="I11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="12">
         <v>97</v>
       </c>
       <c r="L11" s="12">
         <v>1</v>
       </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="49" t="s">
+      <c r="M11" s="32"/>
+      <c r="N11" s="37" t="s">
         <v>70</v>
       </c>
       <c r="O11" s="8" t="s">
@@ -1454,30 +1642,30 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="28"/>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="44" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="39" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
+      <c r="H12" s="28"/>
+      <c r="I12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="27"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="7">
         <v>111</v>
       </c>
       <c r="L12" s="7">
         <v>4</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="50" t="s">
+      <c r="M12" s="32"/>
+      <c r="N12" s="38" t="s">
         <v>48</v>
       </c>
       <c r="O12" s="8" t="s">
@@ -1485,30 +1673,30 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="39" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="H13" s="28"/>
+      <c r="I13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="27"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="7">
         <v>115</v>
       </c>
       <c r="L13" s="7">
         <v>5</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="50" t="s">
+      <c r="M13" s="32"/>
+      <c r="N13" s="38" t="s">
         <v>40</v>
       </c>
       <c r="O13" s="8" t="s">
@@ -1521,28 +1709,28 @@
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="39" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39" t="s">
+      <c r="H14" s="28"/>
+      <c r="I14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="27"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="7">
         <v>107</v>
       </c>
       <c r="L14" s="7">
         <v>3</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="51" t="s">
+      <c r="M14" s="32"/>
+      <c r="N14" s="39" t="s">
         <v>82</v>
       </c>
       <c r="O14" s="8" t="s">
@@ -1552,32 +1740,32 @@
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="44" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="39" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="7">
         <v>120</v>
       </c>
       <c r="L15" s="7">
         <v>6</v>
       </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="50" t="s">
+      <c r="M15" s="32"/>
+      <c r="N15" s="38" t="s">
         <v>51</v>
       </c>
       <c r="O15" s="8" t="s">
@@ -1587,28 +1775,28 @@
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="39" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39" t="s">
+      <c r="H16" s="28"/>
+      <c r="I16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="7">
         <v>163</v>
       </c>
       <c r="L16" s="7">
         <v>15</v>
       </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="50" t="s">
+      <c r="M16" s="32"/>
+      <c r="N16" s="38" t="s">
         <v>57</v>
       </c>
       <c r="O16" s="8" t="s">
@@ -1618,21 +1806,21 @@
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="50" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39" t="s">
+      <c r="H17" s="28"/>
+      <c r="I17" s="28" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="9"/>
@@ -1642,8 +1830,8 @@
       <c r="L17" s="16">
         <v>13</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="52" t="s">
+      <c r="M17" s="33"/>
+      <c r="N17" s="40" t="s">
         <v>44</v>
       </c>
       <c r="O17" s="8" t="s">
@@ -1653,28 +1841,28 @@
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="39" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39" t="s">
+      <c r="H18" s="28"/>
+      <c r="I18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="16">
         <v>146</v>
       </c>
       <c r="L18" s="16">
         <v>12</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="53" t="s">
+      <c r="M18" s="34"/>
+      <c r="N18" s="41" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="8" t="s">
@@ -1687,29 +1875,29 @@
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39" t="s">
+      <c r="H19" s="28"/>
+      <c r="I19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="34"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="16">
         <v>173</v>
       </c>
       <c r="L19" s="16">
         <v>16</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="52" t="s">
+      <c r="M19" s="35"/>
+      <c r="N19" s="40" t="s">
         <v>55</v>
       </c>
       <c r="O19" s="8" t="s">
@@ -1725,30 +1913,30 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="42" t="s">
+      <c r="H20" s="28"/>
+      <c r="I20" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="27"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="16">
         <v>130</v>
       </c>
       <c r="L20" s="16">
         <v>8</v>
       </c>
-      <c r="M20" s="47"/>
-      <c r="N20" s="52" t="s">
+      <c r="M20" s="35"/>
+      <c r="N20" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="O20" s="43" t="s">
+      <c r="O20" s="31" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="52" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -1765,15 +1953,15 @@
       <c r="I21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="16">
         <v>134</v>
       </c>
       <c r="L21" s="16">
         <v>18</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="54" t="s">
+      <c r="M21" s="35"/>
+      <c r="N21" s="42" t="s">
         <v>5</v>
       </c>
       <c r="O21" s="8" t="s">
@@ -1781,7 +1969,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="37"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="6" t="s">
         <v>81</v>
       </c>
@@ -1803,8 +1991,8 @@
       <c r="L22" s="16">
         <v>11</v>
       </c>
-      <c r="M22" s="47"/>
-      <c r="N22" s="53" t="s">
+      <c r="M22" s="35"/>
+      <c r="N22" s="41" t="s">
         <v>6</v>
       </c>
       <c r="O22" s="8" t="s">
@@ -1812,7 +2000,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="38"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="6" t="s">
         <v>81</v>
       </c>
@@ -1827,15 +2015,15 @@
       <c r="I23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="16">
         <v>138</v>
       </c>
       <c r="L23" s="16">
         <v>10</v>
       </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="53" t="s">
+      <c r="M23" s="35"/>
+      <c r="N23" s="41" t="s">
         <v>17</v>
       </c>
       <c r="O23" s="8" t="s">
@@ -1843,7 +2031,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1858,15 +2046,15 @@
       <c r="I24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="27"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="16">
         <v>103</v>
       </c>
       <c r="L24" s="16">
         <v>2</v>
       </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="55" t="s">
+      <c r="M24" s="35"/>
+      <c r="N24" s="43" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="8" t="s">
@@ -1874,14 +2062,14 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J27" s="13"/>
@@ -1895,7 +2083,7 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
-      <c r="N31" s="35"/>
+      <c r="N31" s="27"/>
     </row>
     <row r="38" spans="11:14" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
@@ -1947,15 +2135,15 @@
   </sheetData>
   <autoFilter ref="C8:O20"/>
   <mergeCells count="9">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="G26:N26"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="G26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2120,23 +2308,427 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:F3"/>
+  <dimension ref="E5:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="107.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="5" spans="5:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="E5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L12" s="6" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="E5:L5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pasos.xlsx
+++ b/Pasos.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="4" r:id="rId1"/>
-    <sheet name="Relacion página Figma" sheetId="2" r:id="rId2"/>
-    <sheet name="Dúbidas" sheetId="3" r:id="rId3"/>
-    <sheet name="End-points" sheetId="5" r:id="rId4"/>
+    <sheet name="End-points" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'End-points'!$E$5:$L$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'End-points'!$E$5:$M$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resumen!$C$8:$O$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
   <si>
     <t>End-point</t>
   </si>
@@ -78,70 +76,19 @@
     <t>app.get(urls.users,isUser, listUsers)</t>
   </si>
   <si>
-    <t>Registro</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Admin User</t>
   </si>
   <si>
-    <t>Paginas en figma</t>
-  </si>
-  <si>
-    <t>Portada</t>
-  </si>
-  <si>
-    <t>Listado peticiones User</t>
-  </si>
-  <si>
-    <t>Detalle Peticion user</t>
-  </si>
-  <si>
-    <t>Formulario de Añadir Petición</t>
-  </si>
-  <si>
-    <t>Mis Datos</t>
-  </si>
-  <si>
-    <t>End -point</t>
-  </si>
-  <si>
     <t>app.get(urls.servicios,isUser, listServicios);</t>
   </si>
   <si>
     <t>Primeros pasos</t>
   </si>
   <si>
-    <t>é necesario isUser?</t>
-  </si>
-  <si>
-    <t>entendo que haberá un redirección a adminUSer</t>
-  </si>
-  <si>
-    <t>que executará o seu endpoint</t>
-  </si>
-  <si>
-    <t>app.post(urlsusers.userslogin, loginUser) ==&gt;</t>
-  </si>
-  <si>
-    <t>logueado</t>
-  </si>
-  <si>
-    <t>Páxina 1</t>
-  </si>
-  <si>
-    <t>Páxina 2</t>
-  </si>
-  <si>
     <t>adminUser</t>
   </si>
   <si>
     <t>/servicios/votar/:id_servicio/:id_solucionador</t>
-  </si>
-  <si>
-    <t>A funcion validate Squema ???</t>
   </si>
   <si>
     <t>Usuario</t>
@@ -704,6 +651,9 @@
   </si>
   <si>
     <t>Terceiro</t>
+  </si>
+  <si>
+    <t>Obxeto Url</t>
   </si>
 </sst>
 </file>
@@ -1008,12 +958,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,42 +1059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1170,6 +1080,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1480,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N24"/>
+    <sheetView topLeftCell="D4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,604 +1446,604 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F7" s="4"/>
-      <c r="G7" s="48" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="O8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C9" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="10">
+        <v>159</v>
+      </c>
+      <c r="L9" s="10">
+        <v>14</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C10" s="59"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="10">
+        <v>167</v>
+      </c>
+      <c r="L10" s="10">
+        <v>17</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="59"/>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="10">
+        <v>97</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="20"/>
+      <c r="D12" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="5">
+        <v>111</v>
+      </c>
+      <c r="L12" s="5">
+        <v>4</v>
+      </c>
+      <c r="M12" s="30"/>
+      <c r="N12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="5">
+        <v>115</v>
+      </c>
+      <c r="L13" s="5">
+        <v>5</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="5">
+        <v>107</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="5">
+        <v>120</v>
+      </c>
+      <c r="L15" s="5">
+        <v>6</v>
+      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="5">
+        <v>163</v>
+      </c>
+      <c r="L16" s="5">
+        <v>15</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="14">
+        <v>155</v>
+      </c>
+      <c r="L17" s="14">
+        <v>13</v>
+      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="14">
+        <v>146</v>
+      </c>
+      <c r="L18" s="14">
+        <v>12</v>
+      </c>
+      <c r="M18" s="32"/>
+      <c r="N18" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="G19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="14">
+        <v>173</v>
+      </c>
+      <c r="L19" s="14">
+        <v>16</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="C20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="14">
+        <v>130</v>
+      </c>
+      <c r="L20" s="14">
+        <v>8</v>
+      </c>
+      <c r="M20" s="33"/>
+      <c r="N20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="14">
+        <v>134</v>
+      </c>
+      <c r="L21" s="14">
+        <v>18</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="55"/>
+      <c r="D22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="O8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="12">
-        <v>159</v>
-      </c>
-      <c r="L9" s="12">
-        <v>14</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="45"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="14">
+        <v>142</v>
+      </c>
+      <c r="L22" s="14">
+        <v>11</v>
+      </c>
+      <c r="M22" s="33"/>
+      <c r="N22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="56"/>
+      <c r="D23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="12">
-        <v>167</v>
-      </c>
-      <c r="L10" s="12">
-        <v>17</v>
-      </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="37" t="s">
+      <c r="E23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="14">
+        <v>138</v>
+      </c>
+      <c r="L23" s="14">
+        <v>10</v>
+      </c>
+      <c r="M23" s="33"/>
+      <c r="N23" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="14">
+        <v>103</v>
+      </c>
+      <c r="L24" s="14">
         <v>2</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="45"/>
-      <c r="D11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="12">
-        <v>97</v>
-      </c>
-      <c r="L11" s="12">
-        <v>1</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="22"/>
-      <c r="D12" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="7">
-        <v>111</v>
-      </c>
-      <c r="L12" s="7">
-        <v>4</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="7">
-        <v>115</v>
-      </c>
-      <c r="L13" s="7">
-        <v>5</v>
-      </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="7">
-        <v>107</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="M24" s="33"/>
+      <c r="N24" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="7">
-        <v>120</v>
-      </c>
-      <c r="L15" s="7">
-        <v>6</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="7">
-        <v>163</v>
-      </c>
-      <c r="L16" s="7">
-        <v>15</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="16">
-        <v>155</v>
-      </c>
-      <c r="L17" s="16">
-        <v>13</v>
-      </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="16">
-        <v>146</v>
-      </c>
-      <c r="L18" s="16">
-        <v>12</v>
-      </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="G19" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="16">
-        <v>173</v>
-      </c>
-      <c r="L19" s="16">
-        <v>16</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="C20" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="16">
-        <v>130</v>
-      </c>
-      <c r="L20" s="16">
-        <v>8</v>
-      </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="16">
-        <v>134</v>
-      </c>
-      <c r="L21" s="16">
-        <v>18</v>
-      </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="16">
-        <v>142</v>
-      </c>
-      <c r="L22" s="16">
-        <v>11</v>
-      </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="54"/>
-      <c r="D23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="16">
-        <v>138</v>
-      </c>
-      <c r="L23" s="16">
-        <v>10</v>
-      </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="16">
-        <v>103</v>
-      </c>
-      <c r="L24" s="16">
-        <v>2</v>
-      </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>90</v>
+      <c r="O24" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J27" s="13"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J28" s="13"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J29" s="13"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="N31" s="27"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="N31" s="25"/>
     </row>
     <row r="38" spans="11:14" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="N39" s="19" t="s">
-        <v>71</v>
+      <c r="N39" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="N40" s="19" t="s">
-        <v>72</v>
+      <c r="N40" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="11:14" x14ac:dyDescent="0.25">
@@ -2107,18 +2053,18 @@
       <c r="L41">
         <v>7</v>
       </c>
-      <c r="N41" s="20" t="s">
-        <v>73</v>
+      <c r="N41" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="N42" s="19" t="s">
-        <v>75</v>
+      <c r="N42" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="N43" s="19" t="s">
-        <v>76</v>
+      <c r="N43" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="11:14" x14ac:dyDescent="0.25">
@@ -2128,22 +2074,22 @@
       <c r="L44">
         <v>9</v>
       </c>
-      <c r="N44" s="20" t="s">
-        <v>77</v>
+      <c r="N44" s="18" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C8:O20"/>
   <mergeCells count="9">
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="G26:N26"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2153,165 +2099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:L5"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:L21"/>
+  <dimension ref="E5:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,414 +2111,482 @@
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="E5" s="64" t="s">
+    <row r="5" spans="5:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="E5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="56" t="s">
+      <c r="F5" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="49" t="str">
+        <f>Resumen!O9</f>
+        <v>/users/insertar</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="49" t="str">
+        <f>Resumen!O10</f>
+        <v>/validar/:registrationCode</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="49" t="str">
+        <f>Resumen!O11</f>
+        <v>/users/login</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="49" t="str">
+        <f>Resumen!O12</f>
+        <v>/users/delete/:id</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="49" t="str">
+        <f>Resumen!O13</f>
+        <v>/servicios/borrar/:id_ser</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="49" t="str">
+        <f>Resumen!O14</f>
+        <v>/users/delete/comentario/:id</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="49" t="str">
+        <f>Resumen!O15</f>
+        <v>/users/edit/:id</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="49" t="str">
+        <f>Resumen!O16</f>
+        <v>/admin/modificar/</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="49" t="str">
+        <f>Resumen!O17</f>
+        <v>/servicios</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="49" t="str">
+        <f>Resumen!O18</f>
+        <v>/users/insert/comentario/:id_ser</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="49" t="str">
+        <f>Resumen!O19</f>
+        <v>/servicios/votar/:id_servicio/:id_solucionador</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I17" s="49" t="str">
+        <f>Resumen!O20</f>
+        <v>/user/solution</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="I18" s="49" t="str">
+        <f>Resumen!O21</f>
+        <v>/comentar</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="I19" s="49" t="str">
+        <f>Resumen!O22</f>
+        <v>/users</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="49" t="str">
+        <f>Resumen!O23</f>
+        <v>/servicios</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6" t="s">
-        <v>26</v>
+      <c r="I21" s="49" t="str">
+        <f>Resumen!O24</f>
+        <v>/users/userLogin/</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E5:L5"/>
+  <autoFilter ref="E5:M5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Pasos.xlsx
+++ b/Pasos.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="18915" windowHeight="6720" tabRatio="480" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="4" r:id="rId1"/>
     <sheet name="End-points" sheetId="5" r:id="rId2"/>
+    <sheet name="Relación con Front - RUTAS URL" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'End-points'!$E$5:$M$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resumen!$C$8:$O$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'End-points'!$E$5:$M$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resumen!$C$8:$O$24</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="139">
   <si>
     <t>End-point</t>
   </si>
@@ -655,12 +656,48 @@
   <si>
     <t>Obxeto Url</t>
   </si>
+  <si>
+    <t>Petición</t>
+  </si>
+  <si>
+    <t>Con Postman</t>
+  </si>
+  <si>
+    <t>Desde React</t>
+  </si>
+  <si>
+    <t>servicios/borrar/113</t>
+  </si>
+  <si>
+    <t>servicios/borrar/${id_ser}</t>
+  </si>
+  <si>
+    <t>/users/delete/{id}</t>
+  </si>
+  <si>
+    <t>la dá el correo</t>
+  </si>
+  <si>
+    <t>/users/delete/comentario/{id}</t>
+  </si>
+  <si>
+    <t>/users/edit/{id}</t>
+  </si>
+  <si>
+    <t>/users/insert/comentario</t>
+  </si>
+  <si>
+    <t>/servicios/votar/{id_servicio}/{id_solucionador}</t>
+  </si>
+  <si>
+    <t>/users/userLogin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +814,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -958,7 +1003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1082,6 +1127,36 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1090,33 +1165,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,6 +1174,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF4BEB35"/>
       <color rgb="FFAED816"/>
     </mruColors>
   </colors>
@@ -1426,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="F4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,11 +1499,11 @@
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F7" s="2"/>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1494,7 +1543,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="57" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3"/>
@@ -1526,7 +1575,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="59"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="3"/>
       <c r="E10" s="8" t="s">
         <v>47</v>
@@ -1556,7 +1605,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="59"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1589,7 +1638,7 @@
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="20"/>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="56" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1622,7 +1671,7 @@
       <c r="C13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1656,7 +1705,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="58"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1686,10 +1735,10 @@
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="56" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1721,8 +1770,8 @@
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1752,10 +1801,10 @@
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="62" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -1787,8 +1836,8 @@
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="53"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="12" t="s">
         <v>14</v>
       </c>
@@ -1882,7 +1931,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="52" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -1915,7 +1964,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="55"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="4" t="s">
         <v>64</v>
       </c>
@@ -1946,7 +1995,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="56"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="4" t="s">
         <v>64</v>
       </c>
@@ -2008,14 +2057,14 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J27" s="11"/>
@@ -2079,17 +2128,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C8:O20"/>
+  <autoFilter ref="C8:O24"/>
   <mergeCells count="9">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D12:D14"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="G26:N26"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2101,14 +2150,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="107.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.7109375" bestFit="1" customWidth="1"/>
@@ -2586,7 +2635,254 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E5:M5"/>
+  <autoFilter ref="E5:M21"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f>'End-points'!E6</f>
+        <v>app.post(urls.insertUser,newUser)</v>
+      </c>
+      <c r="F6" t="str">
+        <f>'End-points'!I6</f>
+        <v>/users/insertar</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f>'End-points'!E7</f>
+        <v>app.get(urls.validaregistrationCode,validateUser)</v>
+      </c>
+      <c r="F7" t="str">
+        <f>'End-points'!I7</f>
+        <v>/validar/:registrationCode</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f>'End-points'!E8</f>
+        <v xml:space="preserve">app.post(urlsusers.userslogin, loginUser);   </v>
+      </c>
+      <c r="F8" t="str">
+        <f>'End-points'!I8</f>
+        <v>/users/login</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f>'End-points'!E9</f>
+        <v>app.delete(urlsusers.deleteuser,isUser,userExists,canDeleteUser, deleteUser)</v>
+      </c>
+      <c r="F9" t="str">
+        <f>'End-points'!I9</f>
+        <v>/users/delete/:id</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f>'End-points'!E10</f>
+        <v>app.delete(urls.deleteservicio, isUser, servicioExist, canDeleteService,deleteServicio)</v>
+      </c>
+      <c r="F10" t="str">
+        <f>'End-points'!I10</f>
+        <v>/servicios/borrar/:id_ser</v>
+      </c>
+      <c r="G10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f>'End-points'!E11</f>
+        <v xml:space="preserve">app.delete(urlsusers.userborracomentario, isUser,comentarioExists,canDeleteComentar,deleteComentar) </v>
+      </c>
+      <c r="F11" t="str">
+        <f>'End-points'!I11</f>
+        <v>/users/delete/comentario/:id</v>
+      </c>
+      <c r="H11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f>'End-points'!E12</f>
+        <v>app.put(urlsusers.updateuser,isUser,userExists, canEdit ,editUser)</v>
+      </c>
+      <c r="F12" t="str">
+        <f>'End-points'!I12</f>
+        <v>/users/edit/:id</v>
+      </c>
+      <c r="H12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f>'End-points'!E13</f>
+        <v>app.post(urls.admin,isUser,userExists,canEditAmin,updateAmin)</v>
+      </c>
+      <c r="F13" t="str">
+        <f>'End-points'!I13</f>
+        <v>/admin/modificar/</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f>'End-points'!E14</f>
+        <v>app.post(urls.servicios, isUser,canInsertService,newServicio)</v>
+      </c>
+      <c r="F14" t="str">
+        <f>'End-points'!I14</f>
+        <v>/servicios</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f>'End-points'!E15</f>
+        <v>app.post(urlsusers.insertcomentarios,isUser,servicioExist, newComentar)</v>
+      </c>
+      <c r="F15" t="str">
+        <f>'End-points'!I15</f>
+        <v>/users/insert/comentario/:id_ser</v>
+      </c>
+      <c r="H15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f>'End-points'!E16</f>
+        <v>app.post(urlsusers.votar,isUser,cannotAdmin, voteServicio)</v>
+      </c>
+      <c r="F16" t="str">
+        <f>'End-points'!I16</f>
+        <v>/servicios/votar/:id_servicio/:id_solucionador</v>
+      </c>
+      <c r="H16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f>'End-points'!E17</f>
+        <v>app.post(urls.usersolution,isUser,servicioExist,cannotAdmin,insertSolutions)</v>
+      </c>
+      <c r="F17" t="str">
+        <f>'End-points'!I17</f>
+        <v>/user/solution</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f>'End-points'!E18</f>
+        <v>app.get(urlsusers.listarcomentarios,isUser, listComentar)</v>
+      </c>
+      <c r="F18" t="str">
+        <f>'End-points'!I18</f>
+        <v>/comentar</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f>'End-points'!E19</f>
+        <v>app.get(urls.users,isUser, listUsers)</v>
+      </c>
+      <c r="F19" t="str">
+        <f>'End-points'!I19</f>
+        <v>/users</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f>'End-points'!E20</f>
+        <v>app.get(urls.servicios,isUser, listServicios);</v>
+      </c>
+      <c r="F20" t="str">
+        <f>'End-points'!I20</f>
+        <v>/servicios</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f>'End-points'!E21</f>
+        <v xml:space="preserve"> app.post(urls.userlogeado,isUser,adminUser)</v>
+      </c>
+      <c r="F21" t="str">
+        <f>'End-points'!I21</f>
+        <v>/users/userLogin/</v>
+      </c>
+      <c r="H21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
